--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -481,20 +481,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>'4D455F41F1F067AA0716C2D447D6D7A93F5D5525043D922B378965D520596153'</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>'13FABE970DC19D8CF7D71918CD5997B3F80E33C1650CB58DFE09142ED4BCBE4B'</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>'B1CFE7C52361F038B472926C3740AEAA939DA236C903EB358480F204D6A14676'</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>'A7FD98D8698B7139C8F7C99948EACECD3EEDEC37095D8CFFE6012CA9571D33CD'</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -720,61 +720,61 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8311</v>
+        <v>8335</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8335</v>
+        <v>8311</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -778,93 +778,93 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -880,25 +880,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>'30009D3423DCCEF50707D222DF5AC9BA8B89EACBF0614DD9DD0ECD44A568CDDE'</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>'C08A8A38FEBE19302C585EFC5D827F1628F530FCFEB23C56B3FD874892547198'</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>'63122AFB01A380F7A1F970EEA278D020951763A7C89075CAE4CF50BC3744782F'</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>'AFF64D9A64DE14819CB40C520B588121DD1E8409A8B31EE9ED4AAAC6C6AA230E'</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>'23EBEC0C1198CFF3F29919FE63C67A2331B5C2AB2AA2FA2B4C80308DA213BD1A'</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -481,25 +481,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>'F562E52CDA9107E9592C7FD834DE6F8E70530CE4FF2DE98779271CCB03DB7840'</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>'4D455F41F1F067AA0716C2D447D6D7A93F5D5525043D922B378965D520596153'</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>'13FABE970DC19D8CF7D71918CD5997B3F80E33C1650CB58DFE09142ED4BCBE4B'</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>'B1CFE7C52361F038B472926C3740AEAA939DA236C903EB358480F204D6A14676'</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>'A7FD98D8698B7139C8F7C99948EACECD3EEDEC37095D8CFFE6012CA9571D33CD'</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -558,20 +558,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>'EBB3067ED502494DA33EC8A64FDE1099231A09C38A3A2C118FFEC2D010177504'</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>'6706EB1FCF4ADFC1776E7D7FE0416F19DDB4BA38056BC11DD82FF3CB59ED41E0'</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>'D04712135D4BAED720972863880BFA430CF3435808F1D18F34900E9261C2464F'</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>'BF317D412296DF8881E3458B850C2D35460A2334093C4039BC366DCEAFD41357'</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -649,231 +653,235 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8358</v>
+        <v>8359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quinzinho</t>
+          <t>Rio do Peixe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'54139E15A9078768A0432E77B7B42FFE73E2F675A47F26C1ED5C917BB0754BC3'</t>
+          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'4C348AE91F91F8217A8AD9528C011B9EED24358B04A01C9FD2A81D4647F86D21'</t>
+          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'30151F6774E5433791C97E8CFC6982B3F5B03188A1E6ADE4C144B8BD5264F882'</t>
+          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B10E8F8BA0D05FFCC52F9A4A7077CD3C32F0652E4685557545BFB396DFEF1321'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'52DBE74776D5C612AF94C9B8730C4EB4BDF492B181D46EF9209DF737324B04CC'</t>
-        </is>
-      </c>
+          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8359</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rio do Peixe</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8335</v>
+        <v>8311</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8311</v>
+        <v>8325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Jirau</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
+          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
-        </is>
-      </c>
+          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -881,38 +889,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -957,34 +961,38 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8325</v>
+        <v>8358</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jirau</t>
+          <t>Quinzinho</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
+          <t>'54139E15A9078768A0432E77B7B42FFE73E2F675A47F26C1ED5C917BB0754BC3'</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
+          <t>'4C348AE91F91F8217A8AD9528C011B9EED24358B04A01C9FD2A81D4647F86D21'</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
+          <t>'30151F6774E5433791C97E8CFC6982B3F5B03188A1E6ADE4C144B8BD5264F882'</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>'B10E8F8BA0D05FFCC52F9A4A7077CD3C32F0652E4685557545BFB396DFEF1321'</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>'52DBE74776D5C612AF94C9B8730C4EB4BDF492B181D46EF9209DF737324B04CC'</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,303 +617,311 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8316</v>
+        <v>8312</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig I</t>
+          <t>Borrachudo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
+          <t>'D518D4A9FCCFC0D5D0B54626FA2A3085D5B0D8DA33DCD258789408F69054FCA0'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
+          <t>'30009D3423DCCEF50707D222DF5AC9BA8B89EACBF0614DD9DD0ECD44A568CDDE'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
+          <t>'C08A8A38FEBE19302C585EFC5D827F1628F530FCFEB23C56B3FD874892547198'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
+          <t>'63122AFB01A380F7A1F970EEA278D020951763A7C89075CAE4CF50BC3744782F'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>'AFF64D9A64DE14819CB40C520B588121DD1E8409A8B31EE9ED4AAAC6C6AA230E'</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>'23EBEC0C1198CFF3F29919FE63C67A2331B5C2AB2AA2FA2B4C80308DA213BD1A'</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8359</v>
+        <v>8316</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rio do Peixe</t>
+          <t>Cemig I</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
+          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
+          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
+          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Rio do Peixe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8311</v>
+        <v>8335</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8325</v>
+        <v>8311</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jirau</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
+          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8325</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Jirau</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -921,43 +929,35 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8312</v>
+        <v>8315</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Borrachudo</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>'D518D4A9FCCFC0D5D0B54626FA2A3085D5B0D8DA33DCD258789408F69054FCA0'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>'30009D3423DCCEF50707D222DF5AC9BA8B89EACBF0614DD9DD0ECD44A568CDDE'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>'C08A8A38FEBE19302C585EFC5D827F1628F530FCFEB23C56B3FD874892547198'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>'63122AFB01A380F7A1F970EEA278D020951763A7C89075CAE4CF50BC3744782F'</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>'AFF64D9A64DE14819CB40C520B588121DD1E8409A8B31EE9ED4AAAC6C6AA230E'</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>'23EBEC0C1198CFF3F29919FE63C67A2331B5C2AB2AA2FA2B4C80308DA213BD1A'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,311 +617,303 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8312</v>
+        <v>8316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Borrachudo</t>
+          <t>Cemig I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'D518D4A9FCCFC0D5D0B54626FA2A3085D5B0D8DA33DCD258789408F69054FCA0'</t>
+          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'30009D3423DCCEF50707D222DF5AC9BA8B89EACBF0614DD9DD0ECD44A568CDDE'</t>
+          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'C08A8A38FEBE19302C585EFC5D827F1628F530FCFEB23C56B3FD874892547198'</t>
+          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'63122AFB01A380F7A1F970EEA278D020951763A7C89075CAE4CF50BC3744782F'</t>
+          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'AFF64D9A64DE14819CB40C520B588121DD1E8409A8B31EE9ED4AAAC6C6AA230E'</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>'23EBEC0C1198CFF3F29919FE63C67A2331B5C2AB2AA2FA2B4C80308DA213BD1A'</t>
-        </is>
-      </c>
+          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8316</v>
+        <v>8359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig I</t>
+          <t>Rio do Peixe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
+          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
+          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
+          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
-        </is>
-      </c>
+          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8359</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rio do Peixe</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8335</v>
+        <v>8311</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8311</v>
+        <v>8325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Jirau</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
+          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
-        </is>
-      </c>
+          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8325</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jirau</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -929,35 +921,43 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8315</v>
+        <v>8312</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'D518D4A9FCCFC0D5D0B54626FA2A3085D5B0D8DA33DCD258789408F69054FCA0'</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'30009D3423DCCEF50707D222DF5AC9BA8B89EACBF0614DD9DD0ECD44A568CDDE'</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'C08A8A38FEBE19302C585EFC5D827F1628F530FCFEB23C56B3FD874892547198'</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+          <t>'63122AFB01A380F7A1F970EEA278D020951763A7C89075CAE4CF50BC3744782F'</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>'AFF64D9A64DE14819CB40C520B588121DD1E8409A8B31EE9ED4AAAC6C6AA230E'</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>'23EBEC0C1198CFF3F29919FE63C67A2331B5C2AB2AA2FA2B4C80308DA213BD1A'</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,139 +653,139 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8359</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rio do Peixe</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8335</v>
+        <v>8311</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8311</v>
+        <v>8359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Rio do Peixe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
+          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
-        </is>
-      </c>
+          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -821,38 +821,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -889,34 +885,38 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -821,31 +821,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -853,31 +853,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -821,31 +821,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -853,70 +853,70 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -821,70 +821,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -821,67 +821,63 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -889,34 +885,38 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -853,70 +853,70 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -821,31 +821,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -853,70 +853,70 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -853,70 +853,70 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -821,70 +821,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -581,138 +581,138 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8317</v>
+        <v>8316</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Cemig I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8316</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig I</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -857,31 +857,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -889,31 +889,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,72 +617,72 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -821,67 +821,63 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -889,34 +885,38 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,72 +617,72 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -717,71 +717,63 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8311</v>
+        <v>8359</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Rio do Peixe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
+          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
-        </is>
-      </c>
+          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8359</v>
+        <v>8325</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rio do Peixe</t>
+          <t>Jirau</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
+          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
+          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
+          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -789,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8325</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jirau</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -821,34 +813,38 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -885,39 +881,43 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8313</v>
+        <v>8311</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -581,108 +581,112 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8316</v>
+        <v>8311</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cemig I</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
+          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -717,63 +721,67 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8359</v>
+        <v>8317</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rio do Peixe</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8325</v>
+        <v>8359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jirau</t>
+          <t>Rio do Peixe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
+          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
+          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
+          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
+          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -781,31 +789,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Jirau</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -813,111 +821,103 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8311</v>
+        <v>8315</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -581,207 +581,199 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8311</v>
+        <v>8316</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Cemig I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
+          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
+          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
-        </is>
-      </c>
+          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8316</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig I</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'D1FAC9F51B9ED30D9EC4ADE9B82C13A58088857797AEAE9A374E84361149870C'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'DAE1816DEF74A4A0F519D06729B604C87377B9B7F53A644BFB2C62FCD09B1877'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'06E9F8969A5146CD1AE02CD6CC98B8824E65856C798AA28CDAA2219E47AA977E'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'104C763FA1E31A242AD3568C99B2EB528B7252E5FDDB29B96A6554C4C176A1C2'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'1FDEC78596B64B5FC3012EBC08EBC1CD2DE3CD6DFB588A96FA8F11B04836CF28'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8317</v>
+        <v>8359</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Rio do Peixe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8359</v>
+        <v>8325</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rio do Peixe</t>
+          <t>Jirau</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
+          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
+          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
+          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -789,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8325</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jirau</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'9D1A63169DBD04CEBEADAD3F9DF4717C667FDE6A39B7B2F375492D432D7132F5'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'BB1019E8D8580B206D816AEA35C64B9ACBF7DFC21BF788EB99E923FD21D40FE2'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'66FA2908D1CD2B9E5427CB00D5A90C30A822A7BAD86C0B1DC0F5EFF7AF6F4E5A'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'4FEE4BD44CF548E099A13E23921866C001B1EBBACCC9D8B424106D3D2BE2F3DA'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -889,35 +881,43 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8315</v>
+        <v>8311</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,34 +781,38 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -845,38 +849,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,38 +781,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -849,34 +845,38 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,36 +617,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -681,36 +681,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -781,63 +781,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -845,38 +849,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -817,31 +817,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -817,31 +817,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,66 +617,66 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,100 +617,100 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,30 +617,38 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -681,38 +689,30 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,99 +781,99 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,72 +617,72 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -781,99 +781,99 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,72 +617,72 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -817,31 +817,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -817,31 +817,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,72 +617,72 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -817,31 +817,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -817,31 +817,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -817,31 +817,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,72 +617,72 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,70 +781,70 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -813,31 +813,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,38 +781,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -849,34 +845,38 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -645,72 +645,72 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,99 +781,99 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -813,31 +813,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -645,72 +645,72 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -781,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,30 +617,38 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -681,38 +689,30 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,72 +617,72 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,70 +781,70 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,72 +617,72 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -781,38 +781,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -849,34 +845,38 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,63 +781,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -845,38 +849,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,70 +781,70 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,38 +617,30 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -689,30 +681,38 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,66 +617,66 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,100 +617,100 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,34 +781,38 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -845,38 +849,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,66 +617,66 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -645,72 +645,72 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,66 +617,66 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8335</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -817,31 +817,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,36 +617,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8317</v>
+        <v>8330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -681,36 +681,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -617,102 +617,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8330</v>
+        <v>8317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Cemig II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8317</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cemig II</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'44B08A1D7124C2AC8DB5DE1D2A9DFC9F23FEF3CA1397F0C02A1E78640A22879F'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'E54757801725524809FCE562757B54506E28163BF7AE483E57AB9737F8CC34F1'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'0E93079A96C6C1FAAF516B6016D53F3C044342041AD4F32A5ECE32327D99A665'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'B2505897F182DD8B024579E3AE1BFDA12B066449A7293C0C7D233D9A2BC68323'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'B97BB642173A432BAFBBCCA01E18A3EF9191A0BC47B7572539994813BF84352C'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,99 +781,99 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,70 +781,70 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,63 +781,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -845,38 +849,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,67 +781,63 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,34 +845,38 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -813,70 +813,70 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,70 +781,70 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -881,119 +881,119 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8311</v>
+        <v>8312</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alcindo Vieira</t>
+          <t>Borrachudo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
+          <t>'D518D4A9FCCFC0D5D0B54626FA2A3085D5B0D8DA33DCD258789408F69054FCA0'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
+          <t>'30009D3423DCCEF50707D222DF5AC9BA8B89EACBF0614DD9DD0ECD44A568CDDE'</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
+          <t>'C08A8A38FEBE19302C585EFC5D827F1628F530FCFEB23C56B3FD874892547198'</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
+          <t>'63122AFB01A380F7A1F970EEA278D020951763A7C89075CAE4CF50BC3744782F'</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+          <t>'AFF64D9A64DE14819CB40C520B588121DD1E8409A8B31EE9ED4AAAC6C6AA230E'</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+          <t>'23EBEC0C1198CFF3F29919FE63C67A2331B5C2AB2AA2FA2B4C80308DA213BD1A'</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8312</v>
+        <v>8358</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Borrachudo</t>
+          <t>Quinzinho</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>'D518D4A9FCCFC0D5D0B54626FA2A3085D5B0D8DA33DCD258789408F69054FCA0'</t>
+          <t>'54139E15A9078768A0432E77B7B42FFE73E2F675A47F26C1ED5C917BB0754BC3'</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>'30009D3423DCCEF50707D222DF5AC9BA8B89EACBF0614DD9DD0ECD44A568CDDE'</t>
+          <t>'4C348AE91F91F8217A8AD9528C011B9EED24358B04A01C9FD2A81D4647F86D21'</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>'C08A8A38FEBE19302C585EFC5D827F1628F530FCFEB23C56B3FD874892547198'</t>
+          <t>'30151F6774E5433791C97E8CFC6982B3F5B03188A1E6ADE4C144B8BD5264F882'</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>'63122AFB01A380F7A1F970EEA278D020951763A7C89075CAE4CF50BC3744782F'</t>
+          <t>'B10E8F8BA0D05FFCC52F9A4A7077CD3C32F0652E4685557545BFB396DFEF1321'</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>'AFF64D9A64DE14819CB40C520B588121DD1E8409A8B31EE9ED4AAAC6C6AA230E'</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>'23EBEC0C1198CFF3F29919FE63C67A2331B5C2AB2AA2FA2B4C80308DA213BD1A'</t>
-        </is>
-      </c>
+          <t>'52DBE74776D5C612AF94C9B8730C4EB4BDF492B181D46EF9209DF737324B04CC'</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8358</v>
+        <v>8311</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quinzinho</t>
+          <t>Alcindo Vieira</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>'54139E15A9078768A0432E77B7B42FFE73E2F675A47F26C1ED5C917BB0754BC3'</t>
+          <t>'A6B06270C519F6B905FBC71F4E56370499F2ADBE34CBD175C4EA8503BEBE5E1F'</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>'4C348AE91F91F8217A8AD9528C011B9EED24358B04A01C9FD2A81D4647F86D21'</t>
+          <t>'705D75AED23807575386740DB65BEAC244D5A418853D1FDFE28E95CDEAC3ED3E'</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>'30151F6774E5433791C97E8CFC6982B3F5B03188A1E6ADE4C144B8BD5264F882'</t>
+          <t>'82FC94F15DEDB9FFACC8BD66378BBBD673EF3EC4F4D4EB6F9E552705371A1457'</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>'B10E8F8BA0D05FFCC52F9A4A7077CD3C32F0652E4685557545BFB396DFEF1321'</t>
+          <t>'834757D49EDEB1CC19C0E5AABE9C0209B4E9A8F9A6F9B7187F4A849F188CD28F'</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>'52DBE74776D5C612AF94C9B8730C4EB4BDF492B181D46EF9209DF737324B04CC'</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>'EAEBCB149620AE49440D70B79518BB9A515D221A4101676CB98CFEEDA61A112C'</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>'14681AE003E69ACB435813CB2F8446C6E8B3D98A5531052405777E3212F80BB4'</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,70 +781,70 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,31 +781,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -849,31 +849,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,70 +781,70 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -653,66 +653,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8335</v>
+        <v>8330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'A5F499315531684FB8F3957E482781B4B44685C7757D939F6D517F2E3D3E07F3'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'011A6E79AB2871FC220DF46F9FEB2281D4D2E4F7DE1B22A4F639DE90582E7868'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'FBDB3615E35196750105C57AF5A5F3C3A2640890F42AD9119B7A4EBC637BEB80'</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -781,67 +781,63 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -849,34 +845,38 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8315</v>
+        <v>8313</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,63 +781,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -845,38 +849,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8313</v>
+        <v>8315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'D4AF7C3E478E9273B20AAB23A7541065D38FFF710EA9088C7978D16C599F1E87'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'93702E21686CB392DDACC63CE5D053174A733A0BDDDD0620FC970910213C8694'</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'9DB6B0B5C826B878059E9E964AF7EF44FCDD8EC26BC8A1C0570F5ADE676E71D5'</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'97BA1F1CA098AB775A449A464A1B59F7BD5C6028F42608A934EE2B24708D401B'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -681,70 +681,70 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8330</v>
+        <v>8359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piabas</t>
+          <t>Rio do Peixe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
+          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
+          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
+          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
-        </is>
-      </c>
+          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8359</v>
+        <v>8330</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rio do Peixe</t>
+          <t>Piabas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'7A74C4EA491010C8C2E806ADC2BCAA58E44E7780EAED0C6BAD109869B8DBB2D0'</t>
+          <t>'889984F232758A7CAE651D7B0C3B35B2AF89E464E78619E4062E53BC95F37602'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>'371908429BA4558982712B3461FF2C52E515CE2325F9ACFD15D0F048309B6637'</t>
+          <t>'AABF9B4F3A5214AA56B8D5F82A84597770BAD5B090718311506CFF567E5EDBEC'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>'338F887134BB78B8F0AB9A1E1394C97B484CAC74D142194A2C64E68E3B28EE98'</t>
+          <t>'E47A1FD4E94746773A7326C0169C312262255704F03D4D88F191C2A56997BA7F'</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>'BDDCC17C58C9054187D547FB34B524C40FACB18EE18A3FA4C195678859EC9AE1'</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>'66682A0FC9610151D3504BDF56D7293D5DDEF55998A44AD39AE401DE366EFA31'</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>'4A8E3E2F8CC2DBC9D6FCDBB9F604343194E10D5125EB593ED7773B2F8C97B23D'</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">

--- a/data/data_previous.xlsx
+++ b/data/data_previous.xlsx
@@ -781,70 +781,70 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borrachudo II</t>
+          <t>Cambucal I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
+          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
+          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
+          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
-        </is>
-      </c>
+          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cambucal I</t>
+          <t>Borrachudo II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'84BC879198A8B1DB277701B7E5A7E55C191BA02F5207A0FE6AB968D9CBA920BD'</t>
+          <t>'90EF2B36DEF6E41F84A4E3AAE98DFEAE024AE388AA45B532008FC6D2C42A502D'</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>'5C35346244793E190B1E3E932706EE82F2ACC3B0F4535BFF2897DF0A98EA5961'</t>
+          <t>'465585184AB408A43D36FC622DB5C571EEB028040979A803DDEF5B472B43DBE1'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>'578F8D679087B4413BD5873F6EC96C9A8731F7B161412E1A7947AD7F28E5B3BE'</t>
+          <t>'80D3C8A19909F894AF8F16310C3361B30962BCF46E578F411C0CAD295534BD2F'</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>'B1C087E908CF47677B8AFA779A7E7A0C7C2019B0631026702212FE8734947A05'</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>'32EBBF8598B840A8562283E8DDE002B1CB3D315D6887CA5FDDC222E506D57555'</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>'6AB38B7A99A3EC9883CD610D9A434A4BA8A89D8DEC4633BE398486A3520133DB'</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
